--- a/example.xlsx
+++ b/example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -22,10 +22,13 @@
     <t>amount</t>
   </si>
   <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
-    <t>Jack</t>
+    <t>ABC</t>
   </si>
   <si>
     <t>Jane</t>
@@ -219,10 +222,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1325,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1345,35 +1348,37 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>21</v>
       </c>
-      <c r="C2" s="6">
-        <v>3999</v>
+      <c r="C2" s="6"/>
+      <c r="D2" t="s" s="7">
+        <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C3" s="10">
-        <v>3131</v>
+        <v>90</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -1381,15 +1386,9 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9">
-        <v>32</v>
-      </c>
-      <c r="C4" s="10">
-        <v>12411</v>
-      </c>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1539,24 +1538,6 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
